--- a/Doc/导出配置/Monster.xlsx
+++ b/Doc/导出配置/Monster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\PokerGame\Doc\导出配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15171332-AA01-4C8A-B072-18C331DF76C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C2A1D8-4757-4C57-83D3-0FE6061B2CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cfg_FightingUnit" sheetId="9" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Cfg_FightingProperty" sheetId="2" r:id="rId3"/>
     <sheet name="辅助_战斗属性" sheetId="17" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
     <author>毛俭铭</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{79D35F6F-667A-41B0-970E-F3CB710639CE}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{039C6467-54A3-4C55-99B8-C30C584DECC0}">
       <text>
         <r>
           <rPr>
@@ -47,63 +47,63 @@
           <t>【字段名】：
 id
 【表头】：
-c|int
-【数据类型】：
-字符
-【为空是否导出】：
-false</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{B9E58D8F-67F6-4E45-84F6-A592587FDBAD}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>【字段名】：
-displayId
-【表头】：
-c|int
+c
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{0691F332-763E-414E-B87C-67D90D5ED8D2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+display
+【表头】：
+c
 【数据类型】：
 字符
 【为空是否导出】：
 false
 【转换目标字段】
-：BattleDisplay表的id字段</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{63727E28-72DD-4E77-A6E3-1A611BDADE3D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>【字段名】：
-propertyId
-【表头】：
-c|int
+：FightingDisplay表的id字段</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{90E445B0-62A8-4652-9814-15E5E0D48AA6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+property
+【表头】：
+c
 【数据类型】：
 字符
 【为空是否导出】：
 false
 【转换目标字段】
-：BattleProperty表的id字段</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{3219006D-1B19-49AA-B4E5-722EEE25367A}">
+：FightingDisplay表的id字段</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{47FF6613-F78C-4865-8C08-FA077A17D937}">
       <text>
         <r>
           <rPr>
@@ -117,51 +117,51 @@
           <t>【字段名】：
 normalSkill
 【表头】：
-c|int
-【数据类型】：
-字符
-【为空是否导出】：
-false</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{5EF38E93-C683-4E2E-ABD0-B6387A0BCBFE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>【字段名】：
-activeSkills
-【表头】：
-c|int[]
-【数据类型】：
-字符
-【为空是否导出】：
-false</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{EE776CF9-963D-4584-8416-97A6233861A9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>【字段名】：
-passiveSkills
-【表头】：
-c|int[]
+c
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{68D70408-B5C6-4F25-8F40-32883B7FE320}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+activeSkillList
+【表头】：
+c
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{2CA33992-570C-4056-9D04-A610276B90FD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+negativeSkillList
+【表头】：
+c
 【数据类型】：
 字符
 【为空是否导出】：
@@ -179,7 +179,7 @@
     <author>毛俭铭</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{B5E08796-FF2E-4DA0-9FAE-C529E8441F6C}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{9C63672E-83CD-4CC9-B6D2-DA8214C72DEB}">
       <text>
         <r>
           <rPr>
@@ -193,15 +193,15 @@
           <t>【字段名】：
 id
 【表头】：
-c|int
-【数据类型】：
-字符
-【为空是否导出】：
-false</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{34BDF1F2-2205-4BC7-9D74-856C01CFEFB6}">
+c
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{734CFBDE-94AD-4D48-BEB7-5AF2A97EE6E6}">
       <text>
         <r>
           <rPr>
@@ -215,15 +215,15 @@
           <t>【字段名】：
 name
 【表头】：
-c|string
-【数据类型】：
-字符
-【为空是否导出】：
-false</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{C8F4D2E0-08C4-49EB-949A-FA52BE920DBC}">
+c
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{B5F4CD59-5EC8-4A10-8AD5-3E931739188A}">
       <text>
         <r>
           <rPr>
@@ -237,7 +237,7 @@
           <t>【字段名】：
 icon
 【表头】：
-c|string
+c
 【数据类型】：
 字符
 【为空是否导出】：
@@ -255,7 +255,7 @@
     <author>毛俭铭</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{0671CFFD-0604-449C-9B0E-26EBEC072477}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{8B5DE3A0-2336-4EE4-AB7E-66FCECE04FAB}">
       <text>
         <r>
           <rPr>
@@ -277,7 +277,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{42B60A3B-D70F-4099-927E-F0EF5531C88C}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{6EFD01C8-2791-40B4-9A26-7D2550090BDD}">
       <text>
         <r>
           <rPr>
@@ -299,7 +299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{34692021-0991-4FF8-8571-8B89F78C58ED}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{5A3388EE-28D0-4020-B3AE-17124A069D1C}">
       <text>
         <r>
           <rPr>
@@ -321,7 +321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{D46B9DB2-B0E0-44EB-A02F-9850D2D4357D}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{4702E584-6765-4BC2-A383-1BC59368FB32}">
       <text>
         <r>
           <rPr>
@@ -343,7 +343,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{AD43E8DE-ACB0-4FC3-956A-9C1EF992D1A3}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{9B17CDAA-F6B6-469A-8F6D-06CD6301B61F}">
       <text>
         <r>
           <rPr>
@@ -365,7 +365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{462B5B4A-971D-4893-91FD-B890059CD388}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{CBF95053-958E-4C89-B3E7-F4FB07D1A70B}">
       <text>
         <r>
           <rPr>
@@ -387,7 +387,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{3D897EE7-2001-4E8D-B3A9-B9D2B6BBFC24}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{74D10C8C-BE0F-4F2E-B40A-1A5BBFD59410}">
       <text>
         <r>
           <rPr>
@@ -402,6 +402,1049 @@
 others
 【表头】：
 c
+【数据类型】：
+字符
+【为空是否导出】：
+false
+【内容格式】：
+数据名.方法名1[参数1,参数2……].方法名2[参数1,参数2……].…….方法名[Key1=Value1,Key2=Value2]……
+其中参数值如果为默认值可省略，具体方法对应的参数序号和默认值见系统_参数设置的数据表处理方法配置
+如果表头配置的转换关键字配置了方法，此处可只配置数据配置</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>毛俭铭</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{AFBAEBBA-5CDF-43EB-82C0-F89538910FD2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+300
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{59DB1336-9FB6-4602-924E-B70B9D5D6461}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+301
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{E532EC26-6FB5-4C1C-B460-B5E6785CC24D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+400
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{93682D2C-9CB5-40E3-A25B-98CD41433081}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+401
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{1E9A7525-0115-46B6-B58C-6AFBE0207E58}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+402
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{5FC696D9-A5B6-4C20-9814-58B249257B26}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+104
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{2375B577-75E4-4CBB-95A0-99EF4A229E63}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+105
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{2AB99DD5-B900-4B7A-8405-08F22278158B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+106
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{1B40ED48-996A-4498-A63A-59AC163ECAF6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+107
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{65B95957-20F5-44C1-B50D-99403DEBCCA8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+200
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{CF24EE5C-3FB3-4732-AA69-6BAB54E50C6C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+201
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{B29598AD-2602-42EB-ADA4-4C1120AB9215}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+202
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{E54811A2-E025-43FB-8520-4BF2227533D8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+203
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{441A88CF-D560-4132-93C1-5769EE9911B6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+500
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{37C6987B-6961-433A-8C5F-D057963268DF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+501
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{91C52516-5FF3-4CC3-AC0A-D2DB8FBE70F9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+502
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{D2F72D59-3D87-4526-85AF-29AA27B12F5C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+503
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{06A5EDA8-5EA8-44CF-9FA3-DE3D3582F5DD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+508
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{932C3530-F975-47AB-8B82-E612AC4CD40D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+509
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{83ECA74E-09DE-4650-BA3D-102C0E1B3C6F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+510
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{3C3B76E6-1CB0-4E57-B5AB-C564205EEF41}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+511
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{8AB58C4C-D98C-4F70-B56B-E82612D9B0F6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+600
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{A275F252-241D-49DC-AD5B-E167C495BC1B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+601
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{A3FA989C-7FD1-48D7-A3FE-90F350B5D210}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+602
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{009469EF-7CFC-4DDE-AB4F-8D7ED3D30A45}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+603
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{F5BA9E8E-697F-472D-95F7-BFED00D1CDCF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+700
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{1BAC6651-84A8-4CA1-BDD3-6E387A556045}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+701
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{6B47D4DA-FA0B-47AD-A1B1-D5002EA09BEE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+702
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{5F655168-AF5F-4CB5-8D94-58A47285B407}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+703
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{FF855D9A-8CD8-4EE8-8929-B20141DEA5DD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+800
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{2CAD6751-E918-46B5-8A2F-8010EBEE8211}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+801
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{2D4C616F-F882-41EA-8857-D9B6CB603F3C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+802
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH1" authorId="0" shapeId="0" xr:uid="{C5045317-39A2-48E9-8C41-10ADD38D9634}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+803
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI1" authorId="0" shapeId="0" xr:uid="{D02F840E-1FE8-4D9E-82D8-0389C858EA44}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+900
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ1" authorId="0" shapeId="0" xr:uid="{9CDB9161-A866-4C4E-B6DA-D0A268870B71}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+901
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK1" authorId="0" shapeId="0" xr:uid="{F41E55CF-C46A-402D-8B37-6E2D8442D0FA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+902
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL1" authorId="0" shapeId="0" xr:uid="{1037556F-61B7-4E31-B680-9E0D5303A744}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+903
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM1" authorId="0" shapeId="0" xr:uid="{3483481A-3FA1-488A-8DCA-C0C9BA5B22DD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+1000
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN1" authorId="0" shapeId="0" xr:uid="{45709035-3AC1-427B-AAEC-711EFD43EFA0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+1001
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO1" authorId="0" shapeId="0" xr:uid="{42751530-8184-4C66-9B84-62E2F24F3655}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+1002
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP1" authorId="0" shapeId="0" xr:uid="{85969770-9723-4C05-8982-2F5CA6810FFD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+1003
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ1" authorId="0" shapeId="0" xr:uid="{B2EE6E60-2967-4BBC-9909-B258B5E3B097}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+1100
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR1" authorId="0" shapeId="0" xr:uid="{7A0C9B5E-B58D-40F8-A8C5-EEFB83D08D3C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+1101
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AS1" authorId="0" shapeId="0" xr:uid="{715F6157-4176-452B-8602-A2FE7C31525E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+1102
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT1" authorId="0" shapeId="0" xr:uid="{137D8E52-F7BC-41F4-9440-1C58D090D15D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+1103
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU1" authorId="0" shapeId="0" xr:uid="{B1400D0F-C6C5-45E7-A453-6ED2856E5182}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+1200
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV1" authorId="0" shapeId="0" xr:uid="{B2600A79-5178-4291-97A4-92FB5D63839F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+1201
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW1" authorId="0" shapeId="0" xr:uid="{8EFBBABE-2EE9-4A96-8C76-F1E1E504B589}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+1202
+【表头】：
+【数据类型】：
+字符
+【为空是否导出】：
+false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX1" authorId="0" shapeId="0" xr:uid="{C92F18C1-F17B-4FDE-9F7F-CCFD681FF751}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+1203
+【表头】：
 【数据类型】：
 字符
 【为空是否导出】：
@@ -2419,7 +3462,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -2573,7 +3616,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -2639,7 +3682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25CC2D8B-CD7B-408F-831D-3881CEE33635}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25CC2D8B-CD7B-408F-831D-3881CEE33635}">
   <dimension ref="A1:AX2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2814,8 +3857,9 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>